--- a/WORK_CENTERS_UPDATE.xlsx
+++ b/WORK_CENTERS_UPDATE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asisasotelo/Github Repositories/PyQt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asisasotelo/Github Repositories/MRM-Post-Processor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1853ED-D69C-BC40-BFAF-D01C224C7D20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856BE859-E6B3-B54D-9C29-F466895FD066}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{9986DE73-0A6D-4C55-BA10-FCEF517F05D2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="294">
   <si>
     <t>Work Center ID</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 25/-25 DEG 25/-25 DEG</t>
+  </si>
+  <si>
+    <t>30/30 DEG</t>
   </si>
 </sst>
 </file>
@@ -1241,9 +1244,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1259,7 +1260,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1547,14 +1550,14 @@
     <tableColumn id="6" xr3:uid="{80DEA241-5021-4097-8296-42ABE42F3DF7}" name="Axis" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{C0F97F92-922C-4FE0-8416-6E4333336FE0}" name="ID #" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{419BA24C-36C7-48FE-AC3D-3DE1A4A21385}" name="Travel(XxYxZ)" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{2057B3E8-13D6-074C-BAF3-672AC91AB06F}" name="Rotary Travel" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{899BA60F-3ACD-4570-B8A3-B638D7E90225}" name="CNC Controls" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{1C631B7C-DCD4-4271-91CC-B92567AD1CA6}" name="Status" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{39B77810-A503-41FB-810C-0613C029AC03}" name="MachineNumber" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{38F2E830-B4AD-4AEF-B3A7-9DD94C2B8E49}" name="Zone" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{97B5227C-1B34-4671-AA2C-77C7C4F66E06}" name="Table Size" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{BF1A9D4A-DE6E-4558-8EEC-F5D316CBB47A}" name="Max Spindle Speed" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{2391C7BC-6310-4F8D-BA10-A7B53372C64E}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{2057B3E8-13D6-074C-BAF3-672AC91AB06F}" name="Rotary Travel" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{899BA60F-3ACD-4570-B8A3-B638D7E90225}" name="CNC Controls" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{1C631B7C-DCD4-4271-91CC-B92567AD1CA6}" name="Status" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{39B77810-A503-41FB-810C-0613C029AC03}" name="MachineNumber" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{38F2E830-B4AD-4AEF-B3A7-9DD94C2B8E49}" name="Zone" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{97B5227C-1B34-4671-AA2C-77C7C4F66E06}" name="Table Size" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{BF1A9D4A-DE6E-4558-8EEC-F5D316CBB47A}" name="Max Spindle Speed" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{2391C7BC-6310-4F8D-BA10-A7B53372C64E}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1861,7 +1864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3537,7 +3540,9 @@
       <c r="H40" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="J40" s="2" t="s">
         <v>234</v>
       </c>

--- a/WORK_CENTERS_UPDATE.xlsx
+++ b/WORK_CENTERS_UPDATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asisasotelo/Github Repositories/MRM-Post-Processor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856BE859-E6B3-B54D-9C29-F466895FD066}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B94212-DB8E-E547-A4CD-DE999E53A24B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{9986DE73-0A6D-4C55-BA10-FCEF517F05D2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="295">
   <si>
     <t>Work Center ID</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>30/30 DEG</t>
+  </si>
+  <si>
+    <t>[;.l</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1129,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1160,6 +1163,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
@@ -1864,7 +1868,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2413,7 +2417,7 @@
         <v>112</v>
       </c>
       <c r="M13" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3892,8 +3896,8 @@
       <c r="L48" s="10">
         <v>341</v>
       </c>
-      <c r="M48" s="2">
-        <v>221</v>
+      <c r="M48" s="21" t="s">
+        <v>294</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
